--- a/output/StructureDefinition-consent-management-provenance.xlsx
+++ b/output/StructureDefinition-consent-management-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-17T15:48:53+01:00</t>
+    <t>2025-03-26T13:23:18+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-consent-management-provenance.xlsx
+++ b/output/StructureDefinition-consent-management-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-26T13:23:18+01:00</t>
+    <t>2025-03-26T13:37:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-consent-management-provenance.xlsx
+++ b/output/StructureDefinition-consent-management-provenance.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2298" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2299" uniqueCount="422">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-26T13:37:22+01:00</t>
+    <t>2025-04-15T09:45:28+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>This is the consent management provenance profile for the consent profile of the Forschungsvorhaben and Videosprechstunde</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -1568,66 +1571,68 @@
       <c r="A12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1690,146 +1695,146 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>20</v>
@@ -1841,16 +1846,16 @@
         <v>20</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1900,28 +1905,28 @@
         <v>20</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>20</v>
@@ -1932,10 +1937,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1943,10 +1948,10 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>20</v>
@@ -1955,19 +1960,19 @@
         <v>20</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2017,13 +2022,13 @@
         <v>20</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>20</v>
@@ -2049,10 +2054,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2060,10 +2065,10 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>20</v>
@@ -2072,16 +2077,16 @@
         <v>20</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2132,25 +2137,25 @@
         <v>20</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AM4" t="s" s="2">
         <v>20</v>
@@ -2164,10 +2169,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2175,31 +2180,31 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2249,25 +2254,25 @@
         <v>20</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>20</v>
@@ -2281,10 +2286,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2292,10 +2297,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>20</v>
@@ -2307,16 +2312,16 @@
         <v>20</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2342,13 +2347,13 @@
         <v>20</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>20</v>
@@ -2366,25 +2371,25 @@
         <v>20</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>20</v>
@@ -2398,21 +2403,21 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>20</v>
@@ -2424,16 +2429,16 @@
         <v>20</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2483,25 +2488,25 @@
         <v>20</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>20</v>
@@ -2515,21 +2520,21 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>20</v>
@@ -2541,16 +2546,16 @@
         <v>20</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2600,13 +2605,13 @@
         <v>20</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>20</v>
@@ -2618,7 +2623,7 @@
         <v>20</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>20</v>
@@ -2632,21 +2637,21 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>20</v>
@@ -2658,16 +2663,16 @@
         <v>20</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2705,37 +2710,37 @@
         <v>20</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>20</v>
@@ -2749,45 +2754,45 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>20</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>20</v>
@@ -2824,37 +2829,37 @@
         <v>20</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AD10" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>20</v>
@@ -2868,10 +2873,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2879,31 +2884,31 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2953,42 +2958,42 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2996,10 +3001,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>20</v>
@@ -3011,13 +3016,13 @@
         <v>20</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3068,13 +3073,13 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>20</v>
@@ -3086,7 +3091,7 @@
         <v>20</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>20</v>
@@ -3100,21 +3105,21 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>20</v>
@@ -3126,16 +3131,16 @@
         <v>20</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3173,37 +3178,37 @@
         <v>20</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>20</v>
@@ -3217,10 +3222,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3228,31 +3233,31 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3302,25 +3307,25 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>20</v>
@@ -3334,10 +3339,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3345,10 +3350,10 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>20</v>
@@ -3357,19 +3362,19 @@
         <v>20</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3395,13 +3400,13 @@
         <v>20</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>20</v>
@@ -3419,25 +3424,25 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>20</v>
@@ -3451,10 +3456,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3462,10 +3467,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>20</v>
@@ -3474,19 +3479,19 @@
         <v>20</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3536,25 +3541,25 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>20</v>
@@ -3568,10 +3573,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3579,10 +3584,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>20</v>
@@ -3591,19 +3596,19 @@
         <v>20</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3653,25 +3658,25 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>20</v>
@@ -3685,10 +3690,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3696,10 +3701,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>20</v>
@@ -3711,16 +3716,16 @@
         <v>20</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3770,31 +3775,31 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>20</v>
@@ -3802,10 +3807,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3813,31 +3818,31 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3887,42 +3892,42 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3930,10 +3935,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>20</v>
@@ -3945,16 +3950,16 @@
         <v>20</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4004,25 +4009,25 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>20</v>
@@ -4031,15 +4036,15 @@
         <v>20</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4047,10 +4052,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>20</v>
@@ -4062,16 +4067,16 @@
         <v>20</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4121,42 +4126,42 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4164,10 +4169,10 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>20</v>
@@ -4179,16 +4184,16 @@
         <v>20</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4214,13 +4219,13 @@
         <v>20</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>20</v>
@@ -4238,42 +4243,42 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4281,10 +4286,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>20</v>
@@ -4296,16 +4301,16 @@
         <v>20</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4331,13 +4336,13 @@
         <v>20</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>20</v>
@@ -4355,31 +4360,31 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>20</v>
@@ -4387,10 +4392,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4398,13 +4403,13 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>20</v>
@@ -4413,19 +4418,19 @@
         <v>20</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>20</v>
@@ -4474,42 +4479,42 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4517,10 +4522,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>20</v>
@@ -4532,13 +4537,13 @@
         <v>20</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4589,13 +4594,13 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>20</v>
@@ -4607,7 +4612,7 @@
         <v>20</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>20</v>
@@ -4621,21 +4626,21 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>20</v>
@@ -4647,16 +4652,16 @@
         <v>20</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4694,37 +4699,37 @@
         <v>20</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>20</v>
@@ -4738,45 +4743,45 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>20</v>
@@ -4825,25 +4830,25 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>20</v>
@@ -4857,10 +4862,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4868,10 +4873,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>20</v>
@@ -4880,19 +4885,19 @@
         <v>20</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4918,13 +4923,13 @@
         <v>20</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>20</v>
@@ -4942,42 +4947,42 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4985,10 +4990,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>20</v>
@@ -5000,16 +5005,16 @@
         <v>20</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5035,13 +5040,13 @@
         <v>20</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>20</v>
@@ -5059,25 +5064,25 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>20</v>
@@ -5086,15 +5091,15 @@
         <v>20</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5102,31 +5107,31 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5176,31 +5181,31 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>20</v>
@@ -5208,10 +5213,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5219,10 +5224,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>20</v>
@@ -5234,16 +5239,16 @@
         <v>20</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5293,25 +5298,25 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>20</v>
@@ -5325,10 +5330,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5336,13 +5341,13 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>20</v>
@@ -5351,13 +5356,13 @@
         <v>20</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5408,42 +5413,42 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5451,10 +5456,10 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>20</v>
@@ -5466,13 +5471,13 @@
         <v>20</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5523,13 +5528,13 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>20</v>
@@ -5541,7 +5546,7 @@
         <v>20</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>20</v>
@@ -5555,21 +5560,21 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>20</v>
@@ -5581,16 +5586,16 @@
         <v>20</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5628,37 +5633,37 @@
         <v>20</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>20</v>
@@ -5672,45 +5677,45 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>20</v>
@@ -5759,25 +5764,25 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>20</v>
@@ -5791,10 +5796,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5802,31 +5807,31 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5834,7 +5839,7 @@
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>20</v>
@@ -5852,13 +5857,13 @@
         <v>20</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>20</v>
@@ -5876,42 +5881,42 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5919,31 +5924,31 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5993,42 +5998,42 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6036,10 +6041,10 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>20</v>
@@ -6051,13 +6056,13 @@
         <v>20</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6108,13 +6113,13 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>20</v>
@@ -6126,7 +6131,7 @@
         <v>20</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>20</v>
@@ -6140,21 +6145,21 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>20</v>
@@ -6166,16 +6171,16 @@
         <v>20</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6213,37 +6218,37 @@
         <v>20</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>20</v>
@@ -6257,10 +6262,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6268,31 +6273,31 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6342,25 +6347,25 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>20</v>
@@ -6374,10 +6379,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6385,10 +6390,10 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>20</v>
@@ -6397,19 +6402,19 @@
         <v>20</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6435,13 +6440,13 @@
         <v>20</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>20</v>
@@ -6459,25 +6464,25 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>20</v>
@@ -6491,10 +6496,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6502,10 +6507,10 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>20</v>
@@ -6514,19 +6519,19 @@
         <v>20</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6576,25 +6581,25 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>20</v>
@@ -6608,10 +6613,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6619,10 +6624,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>20</v>
@@ -6631,19 +6636,19 @@
         <v>20</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6693,25 +6698,25 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>20</v>
@@ -6725,10 +6730,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6736,10 +6741,10 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>20</v>
@@ -6751,16 +6756,16 @@
         <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6810,13 +6815,13 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>20</v>
@@ -6828,7 +6833,7 @@
         <v>20</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>20</v>
@@ -6842,10 +6847,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6853,13 +6858,13 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>20</v>
@@ -6868,16 +6873,16 @@
         <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6927,25 +6932,25 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>20</v>
@@ -6959,10 +6964,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6970,10 +6975,10 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>20</v>
@@ -6985,13 +6990,13 @@
         <v>20</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7042,13 +7047,13 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>20</v>
@@ -7060,7 +7065,7 @@
         <v>20</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>20</v>
@@ -7074,21 +7079,21 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>20</v>
@@ -7100,16 +7105,16 @@
         <v>20</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7147,37 +7152,37 @@
         <v>20</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>20</v>
@@ -7191,10 +7196,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7202,31 +7207,31 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7252,13 +7257,13 @@
         <v>20</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>20</v>
@@ -7276,25 +7281,25 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>20</v>
@@ -7308,10 +7313,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7319,10 +7324,10 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>20</v>
@@ -7334,13 +7339,13 @@
         <v>20</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7391,13 +7396,13 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>20</v>
@@ -7409,7 +7414,7 @@
         <v>20</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>20</v>
@@ -7423,21 +7428,21 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>20</v>
@@ -7449,16 +7454,16 @@
         <v>20</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7496,37 +7501,37 @@
         <v>20</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>20</v>
@@ -7540,10 +7545,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7551,34 +7556,34 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>20</v>
@@ -7627,25 +7632,25 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>20</v>
@@ -7659,10 +7664,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7670,10 +7675,10 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>20</v>
@@ -7682,19 +7687,19 @@
         <v>20</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7744,25 +7749,25 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>20</v>
@@ -7776,10 +7781,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7787,34 +7792,34 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>20</v>
@@ -7863,25 +7868,25 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>20</v>
@@ -7895,10 +7900,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7906,10 +7911,10 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>20</v>
@@ -7918,22 +7923,22 @@
         <v>20</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>20</v>
@@ -7982,25 +7987,25 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>20</v>
@@ -8014,10 +8019,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8025,10 +8030,10 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>20</v>
@@ -8037,22 +8042,22 @@
         <v>20</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>20</v>
@@ -8101,25 +8106,25 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>20</v>
@@ -8133,10 +8138,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8144,31 +8149,31 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8218,25 +8223,25 @@
         <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>20</v>
@@ -8250,10 +8255,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8261,31 +8266,31 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8335,25 +8340,25 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>20</v>
@@ -8367,10 +8372,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8378,34 +8383,34 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>20</v>
@@ -8454,25 +8459,25 @@
         <v>20</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>20</v>
@@ -8486,10 +8491,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8497,10 +8502,10 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>20</v>
@@ -8512,16 +8517,16 @@
         <v>20</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8547,13 +8552,13 @@
         <v>20</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>20</v>
@@ -8571,25 +8576,25 @@
         <v>20</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>20</v>
@@ -8603,10 +8608,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8614,10 +8619,10 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>20</v>
@@ -8629,16 +8634,16 @@
         <v>20</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8664,13 +8669,13 @@
         <v>20</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>20</v>
@@ -8688,25 +8693,25 @@
         <v>20</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>20</v>
@@ -8720,10 +8725,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8731,13 +8736,13 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>20</v>
@@ -8746,16 +8751,16 @@
         <v>20</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8805,25 +8810,25 @@
         <v>20</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>20</v>

--- a/output/StructureDefinition-consent-management-provenance.xlsx
+++ b/output/StructureDefinition-consent-management-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-15T09:45:28+02:00</t>
+    <t>2025-04-16T11:15:21+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-consent-management-provenance.xlsx
+++ b/output/StructureDefinition-consent-management-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-16T11:15:21+02:00</t>
+    <t>2025-04-16T13:27:07+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-consent-management-provenance.xlsx
+++ b/output/StructureDefinition-consent-management-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-16T13:27:07+02:00</t>
+    <t>2025-05-10T09:33:17+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1651,17 +1651,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="36.26953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="36.26953125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="31.28515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="31.28515625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="9.79296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="33.17578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="140.9453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="121.58203125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1670,27 +1670,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="76.1796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="96.91796875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.80078125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="65.71484375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="83.6015625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="34.578125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="28.8359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="212.28515625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.953125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="34.41796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="23.0234375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="183.12109375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="29.2890625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="28.5078125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="29.69140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/output/StructureDefinition-consent-management-provenance.xlsx
+++ b/output/StructureDefinition-consent-management-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-10T09:33:17+02:00</t>
+    <t>2025-05-12T15:27:13+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-consent-management-provenance.xlsx
+++ b/output/StructureDefinition-consent-management-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-12T15:27:13+02:00</t>
+    <t>2025-05-12T15:33:04+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-consent-management-provenance.xlsx
+++ b/output/StructureDefinition-consent-management-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-12T15:33:04+02:00</t>
+    <t>2025-05-14T14:21:32+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-consent-management-provenance.xlsx
+++ b/output/StructureDefinition-consent-management-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-14T14:21:32+02:00</t>
+    <t>2025-06-12T14:08:24+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-consent-management-provenance.xlsx
+++ b/output/StructureDefinition-consent-management-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-12T14:08:24+02:00</t>
+    <t>2025-06-13T14:46:42+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-consent-management-provenance.xlsx
+++ b/output/StructureDefinition-consent-management-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-13T14:46:42+02:00</t>
+    <t>2025-06-16T14:33:49+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-consent-management-provenance.xlsx
+++ b/output/StructureDefinition-consent-management-provenance.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$66</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2299" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2475" uniqueCount="436">
   <si>
     <t>Property</t>
   </si>
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://utn/consentresource.com/StructureDefinition/consent-management-provenance</t>
+    <t>https://www.utn-num.de/fhir/StructureDefinition/consent-management-provenance</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,19 +60,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-16T14:33:49+02:00</t>
+    <t>2025-06-18T11:50:53+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>BIH-CEI</t>
+    <t>BIH at Charité - Core Unit Digital Medicine and Interoperability</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>BIH-CEI (http://utn/consentresource.com)</t>
+    <t>BIH at Charité - Core Unit Digital Medicine and Interoperability (https://www.bihealth.org/de/forschung/arbeitsgruppen/interoperabilitaet/home)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -276,7 +276,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -329,17 +329,10 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Provenance.implicitRules</t>
   </si>
   <si>
@@ -359,9 +352,6 @@
     <t>Resource.implicitRules</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Provenance.language</t>
   </si>
   <si>
@@ -439,6 +429,9 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>Provenance.extension</t>
   </si>
   <si>
@@ -459,6 +452,82 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Provenance.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Provenance.target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://fhir.de/ConsentManagement/StructureDefinition/QuestionnaireResponse|http://fhir.de/ConsentManagement/StructureDefinition/Consent)
+</t>
+  </si>
+  <si>
+    <t>Target Reference(s) (usually version specific)</t>
+  </si>
+  <si>
+    <t>The Reference(s) that were generated or updated by  the activity described in this resource. A provenance can point to more than one target if multiple resources were created/updated by the same activity.</t>
+  </si>
+  <si>
+    <t>Target references are usually version specific, but might not be, if a version has not been assigned or if the provenance information is part of the set of resources being maintained (i.e. a document). When using the RESTful API, the identity of the resource might not be known (especially not the version specific one); the client may either submit the resource first, and then the provenance, or it may submit both using a single transaction. See the notes on transaction for further discussion.</t>
+  </si>
+  <si>
+    <t>./outboundRelationship[isNormalActRelationship() and typeCode=SUBJ]/target  OR  ./participation[isNormalParticipation() and typeCode=SBJ]/role  OR  ./participation[isNormalParticipation() and typeCode=SBJ]/role[isNormalRole()]/player</t>
+  </si>
+  <si>
+    <t>Entity Created/Updated</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>AuditEvent.entity.reference</t>
+  </si>
+  <si>
+    <t>Provenance.target.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Provenance.target.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
@@ -469,103 +538,26 @@
     <t>open</t>
   </si>
   <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Provenance.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Provenance.target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://fhir.de/ConsentManagement/StructureDefinition/QuestionnaireResponse|http://fhir.de/ConsentManagement/StructureDefinition/Consent)
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Provenance.target.reference</t>
+  </si>
+  <si>
+    <t>Literal reference, Relative, internal or absolute URL</t>
+  </si>
+  <si>
+    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Reference.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref-1
 </t>
-  </si>
-  <si>
-    <t>Target Reference(s) (usually version specific)</t>
-  </si>
-  <si>
-    <t>The Reference(s) that were generated or updated by  the activity described in this resource. A provenance can point to more than one target if multiple resources were created/updated by the same activity.</t>
-  </si>
-  <si>
-    <t>Target references are usually version specific, but might not be, if a version has not been assigned or if the provenance information is part of the set of resources being maintained (i.e. a document). When using the RESTful API, the identity of the resource might not be known (especially not the version specific one); the client may either submit the resource first, and then the provenance, or it may submit both using a single transaction. See the notes on transaction for further discussion.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
-  </si>
-  <si>
-    <t>./outboundRelationship[isNormalActRelationship() and typeCode=SUBJ]/target  OR  ./participation[isNormalParticipation() and typeCode=SBJ]/role  OR  ./participation[isNormalParticipation() and typeCode=SBJ]/role[isNormalRole()]/player</t>
-  </si>
-  <si>
-    <t>Entity Created/Updated</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>AuditEvent.entity.reference</t>
-  </si>
-  <si>
-    <t>Provenance.target.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>Provenance.target.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Provenance.target.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t>ele-1
-ref-1</t>
   </si>
   <si>
     <t>Provenance.target.type</t>
@@ -720,9 +712,6 @@
     <t>Where the activity occurred, if relevant.</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
-  </si>
-  <si>
     <t>Event.location</t>
   </si>
   <si>
@@ -751,9 +740,6 @@
     <t>The reason that the activity was taking place.</t>
   </si>
   <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
-  </si>
-  <si>
     <t>The reason the activity took place.</t>
   </si>
   <si>
@@ -987,9 +973,6 @@
     <t>How the entity was used during the activity.</t>
   </si>
   <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
-  </si>
-  <si>
     <t>source</t>
   </si>
   <si>
@@ -1079,9 +1062,6 @@
     <t>A digital signature on the target Reference(s). The signer should match a Provenance.agent. The purpose of the signature is indicated.</t>
   </si>
   <si>
-    <t>The elements of the Signature Resource are for ease of access of these elements. For digital signatures (Xml DigSig, JWS), the non-repudiation proof comes from the Signature  validation, which includes validation of the referenced objects (e.g. Resources) (a.k.a., Content) in the XML-Signature Detached form.</t>
-  </si>
-  <si>
     <t>./signatureText</t>
   </si>
   <si>
@@ -1089,6 +1069,74 @@
   </si>
   <si>
     <t>Provenance.signature.extension</t>
+  </si>
+  <si>
+    <t>Provenance.signature.extension:where</t>
+  </si>
+  <si>
+    <t>where</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://fhir.de/ConsentManagement/StructureDefinition/SignatureLocation}
+</t>
+  </si>
+  <si>
+    <t>Optional Extensions Element</t>
+  </si>
+  <si>
+    <t>Optional Extension Element - found in all resources.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Provenance.signature.extension:where.id</t>
+  </si>
+  <si>
+    <t>Provenance.signature.extension.id</t>
+  </si>
+  <si>
+    <t>Provenance.signature.extension:where.extension</t>
+  </si>
+  <si>
+    <t>Provenance.signature.extension.extension</t>
+  </si>
+  <si>
+    <t>Provenance.signature.extension:where.url</t>
+  </si>
+  <si>
+    <t>Provenance.signature.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://fhir.de/ConsentManagement/StructureDefinition/SignatureLocation</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Provenance.signature.extension:where.value[x]</t>
+  </si>
+  <si>
+    <t>Provenance.signature.extension.value[x]</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
   </si>
   <si>
     <t>Provenance.signature.type</t>
@@ -1116,9 +1164,6 @@
     <t>Signature.type</t>
   </si>
   <si>
-    <t>CV</t>
-  </si>
-  <si>
     <t>Provenance.signature.type.id</t>
   </si>
   <si>
@@ -1250,9 +1295,6 @@
   </si>
   <si>
     <t>Signature.who</t>
-  </si>
-  <si>
-    <t>The target of a resource reference is a RIM entry point (Act, Role, or Entity)</t>
   </si>
   <si>
     <t>Provenance.signature.onBehalfOf</t>
@@ -1642,7 +1684,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO61"/>
+  <dimension ref="A1:AO66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1651,8 +1693,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="31.28515625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="38.48046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.3671875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.79296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="33.17578125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
@@ -2146,16 +2188,16 @@
         <v>90</v>
       </c>
       <c r="AI4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AJ4" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="AK4" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="AM4" t="s" s="2">
         <v>20</v>
@@ -2169,10 +2211,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2195,16 +2237,16 @@
         <v>91</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2254,7 +2296,7 @@
         <v>20</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>79</v>
@@ -2263,16 +2305,16 @@
         <v>90</v>
       </c>
       <c r="AI5" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AJ5" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="AK5" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>20</v>
@@ -2286,10 +2328,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2312,16 +2354,16 @@
         <v>20</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N6" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2347,32 +2389,32 @@
         <v>20</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="Y6" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>120</v>
-      </c>
       <c r="AG6" t="s" s="2">
         <v>79</v>
       </c>
@@ -2380,16 +2422,16 @@
         <v>90</v>
       </c>
       <c r="AI6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AJ6" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="AK6" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>20</v>
@@ -2403,14 +2445,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2429,16 +2471,16 @@
         <v>20</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="N7" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2488,7 +2530,7 @@
         <v>20</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>79</v>
@@ -2497,16 +2539,16 @@
         <v>90</v>
       </c>
       <c r="AI7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AJ7" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="AK7" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>20</v>
@@ -2520,14 +2562,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2546,16 +2588,16 @@
         <v>20</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N8" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2605,7 +2647,7 @@
         <v>20</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>79</v>
@@ -2623,7 +2665,7 @@
         <v>20</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>20</v>
@@ -2637,14 +2679,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2663,16 +2705,16 @@
         <v>20</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2710,19 +2752,19 @@
         <v>20</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>144</v>
+        <v>20</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>79</v>
@@ -2731,16 +2773,16 @@
         <v>80</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>20</v>
@@ -2754,14 +2796,14 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2780,19 +2822,19 @@
         <v>20</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>20</v>
@@ -2829,19 +2871,19 @@
         <v>20</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="AD10" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>144</v>
+        <v>20</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -2850,16 +2892,16 @@
         <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>20</v>
@@ -2873,10 +2915,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2899,16 +2941,16 @@
         <v>91</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2958,7 +3000,7 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>90</v>
@@ -2967,33 +3009,33 @@
         <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AJ11" t="s" s="2">
-        <v>157</v>
-      </c>
       <c r="AK11" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3016,13 +3058,13 @@
         <v>20</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3073,7 +3115,7 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -3091,7 +3133,7 @@
         <v>20</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>20</v>
@@ -3105,14 +3147,14 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3131,16 +3173,16 @@
         <v>20</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="N13" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3178,19 +3220,19 @@
         <v>20</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -3199,16 +3241,16 @@
         <v>80</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>104</v>
+        <v>161</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>20</v>
@@ -3222,10 +3264,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3248,16 +3290,16 @@
         <v>91</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="N14" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3307,7 +3349,7 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3316,16 +3358,16 @@
         <v>90</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>20</v>
@@ -3339,10 +3381,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3365,16 +3407,16 @@
         <v>91</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="N15" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3400,32 +3442,32 @@
         <v>20</v>
       </c>
       <c r="X15" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="Z15" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="AA15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF15" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="Z15" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>183</v>
-      </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
       </c>
@@ -3433,16 +3475,16 @@
         <v>90</v>
       </c>
       <c r="AI15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AJ15" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="AK15" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>20</v>
@@ -3456,10 +3498,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3482,16 +3524,16 @@
         <v>91</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3541,7 +3583,7 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3550,16 +3592,16 @@
         <v>90</v>
       </c>
       <c r="AI16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AJ16" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="AK16" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>20</v>
@@ -3573,10 +3615,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3599,16 +3641,16 @@
         <v>91</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="N17" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3658,7 +3700,7 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3667,16 +3709,16 @@
         <v>90</v>
       </c>
       <c r="AI17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AJ17" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="AK17" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>20</v>
@@ -3690,10 +3732,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3716,16 +3758,16 @@
         <v>20</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3775,7 +3817,7 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -3784,22 +3826,22 @@
         <v>90</v>
       </c>
       <c r="AI18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AJ18" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="AK18" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>20</v>
@@ -3807,10 +3849,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3833,16 +3875,16 @@
         <v>91</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3892,7 +3934,7 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>90</v>
@@ -3901,33 +3943,33 @@
         <v>90</v>
       </c>
       <c r="AI19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AJ19" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="AK19" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL19" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AO19" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>213</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3950,16 +3992,16 @@
         <v>20</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="N20" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4009,7 +4051,7 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -4018,16 +4060,16 @@
         <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AJ20" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="AK20" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>20</v>
@@ -4036,15 +4078,15 @@
         <v>20</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4067,17 +4109,15 @@
         <v>20</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="L21" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>224</v>
-      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>20</v>
@@ -4126,7 +4166,7 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4135,33 +4175,33 @@
         <v>90</v>
       </c>
       <c r="AI21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AJ21" t="s" s="2">
-        <v>157</v>
-      </c>
       <c r="AK21" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AN21" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AO21" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AO21" t="s" s="2">
-        <v>229</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4184,17 +4224,15 @@
         <v>20</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>20</v>
@@ -4219,13 +4257,13 @@
         <v>20</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>20</v>
@@ -4243,7 +4281,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4252,33 +4290,33 @@
         <v>80</v>
       </c>
       <c r="AI22" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AJ22" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="AK22" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AN22" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AO22" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>241</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4301,17 +4339,15 @@
         <v>20</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>20</v>
@@ -4336,13 +4372,13 @@
         <v>20</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>20</v>
@@ -4360,7 +4396,7 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4369,22 +4405,22 @@
         <v>90</v>
       </c>
       <c r="AI23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AJ23" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="AK23" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>20</v>
@@ -4392,10 +4428,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4418,19 +4454,19 @@
         <v>20</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="O24" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>20</v>
@@ -4479,7 +4515,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>90</v>
@@ -4488,33 +4524,33 @@
         <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AJ24" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="AK24" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AN24" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AO24" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>259</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4537,13 +4573,13 @@
         <v>20</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4594,7 +4630,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4612,7 +4648,7 @@
         <v>20</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>20</v>
@@ -4626,14 +4662,14 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4652,16 +4688,16 @@
         <v>20</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4699,19 +4735,19 @@
         <v>20</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>144</v>
+        <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -4720,16 +4756,16 @@
         <v>80</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>104</v>
+        <v>161</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>20</v>
@@ -4743,14 +4779,14 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4769,19 +4805,19 @@
         <v>91</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>20</v>
@@ -4830,7 +4866,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -4839,16 +4875,16 @@
         <v>80</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>20</v>
@@ -4862,10 +4898,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4888,16 +4924,16 @@
         <v>91</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4923,66 +4959,66 @@
         <v>20</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Y28" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="Z28" t="s" s="2">
+      <c r="AN28" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO28" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>276</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5005,16 +5041,16 @@
         <v>20</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5040,13 +5076,13 @@
         <v>20</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>20</v>
@@ -5064,7 +5100,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5073,16 +5109,16 @@
         <v>80</v>
       </c>
       <c r="AI29" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AJ29" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="AK29" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>20</v>
@@ -5091,15 +5127,15 @@
         <v>20</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5122,16 +5158,16 @@
         <v>91</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5181,7 +5217,7 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>90</v>
@@ -5190,22 +5226,22 @@
         <v>90</v>
       </c>
       <c r="AI30" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AJ30" t="s" s="2">
-        <v>157</v>
-      </c>
       <c r="AK30" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>20</v>
@@ -5213,10 +5249,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5239,16 +5275,16 @@
         <v>20</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5298,25 +5334,25 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>20</v>
@@ -5330,10 +5366,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5356,13 +5392,13 @@
         <v>20</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5413,7 +5449,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5422,33 +5458,33 @@
         <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AJ32" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="AK32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5471,13 +5507,13 @@
         <v>20</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5528,7 +5564,7 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5546,7 +5582,7 @@
         <v>20</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>20</v>
@@ -5560,14 +5596,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5586,16 +5622,16 @@
         <v>20</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="N34" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5633,19 +5669,19 @@
         <v>20</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>144</v>
+        <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5654,16 +5690,16 @@
         <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>104</v>
+        <v>161</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>20</v>
@@ -5677,14 +5713,14 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5703,19 +5739,19 @@
         <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>20</v>
@@ -5764,7 +5800,7 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5773,16 +5809,16 @@
         <v>80</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>20</v>
@@ -5796,10 +5832,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5822,101 +5858,99 @@
         <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>311</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="S36" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T36" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO36" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>318</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5939,16 +5973,16 @@
         <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5998,42 +6032,42 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="AG37" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>324</v>
-      </c>
       <c r="AM37" t="s" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6056,13 +6090,13 @@
         <v>20</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6113,7 +6147,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6131,7 +6165,7 @@
         <v>20</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>20</v>
@@ -6145,14 +6179,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6171,16 +6205,16 @@
         <v>20</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="N39" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6218,19 +6252,19 @@
         <v>20</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6239,16 +6273,16 @@
         <v>80</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>104</v>
+        <v>161</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>20</v>
@@ -6262,10 +6296,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6288,16 +6322,16 @@
         <v>91</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="N40" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6347,7 +6381,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6356,16 +6390,16 @@
         <v>90</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>20</v>
@@ -6379,10 +6413,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6405,16 +6439,16 @@
         <v>91</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="N41" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6440,32 +6474,32 @@
         <v>20</v>
       </c>
       <c r="X41" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="Z41" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="Y41" t="s" s="2">
+      <c r="AA41" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF41" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="Z41" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>183</v>
-      </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
       </c>
@@ -6473,16 +6507,16 @@
         <v>90</v>
       </c>
       <c r="AI41" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AJ41" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="AK41" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>20</v>
@@ -6496,10 +6530,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6522,16 +6556,16 @@
         <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6581,7 +6615,7 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6590,16 +6624,16 @@
         <v>90</v>
       </c>
       <c r="AI42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AJ42" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="AK42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>20</v>
@@ -6613,10 +6647,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6639,16 +6673,16 @@
         <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="N43" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6698,7 +6732,7 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6707,16 +6741,16 @@
         <v>90</v>
       </c>
       <c r="AI43" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AJ43" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="AK43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>20</v>
@@ -6730,10 +6764,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6759,13 +6793,13 @@
         <v>81</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6815,7 +6849,7 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -6827,13 +6861,13 @@
         <v>20</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>20</v>
@@ -6847,10 +6881,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6873,17 +6907,15 @@
         <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>20</v>
@@ -6932,7 +6964,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -6941,16 +6973,16 @@
         <v>80</v>
       </c>
       <c r="AI45" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AJ45" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="AK45" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>20</v>
@@ -6964,10 +6996,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6990,13 +7022,13 @@
         <v>20</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7047,7 +7079,7 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7065,7 +7097,7 @@
         <v>20</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>20</v>
@@ -7079,14 +7111,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7105,16 +7137,16 @@
         <v>20</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="N47" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7152,19 +7184,19 @@
         <v>20</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7173,16 +7205,16 @@
         <v>80</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>104</v>
+        <v>161</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>20</v>
@@ -7196,21 +7228,23 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="C48" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="D48" t="s" s="2">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>91</v>
@@ -7219,19 +7253,19 @@
         <v>20</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>349</v>
+        <v>139</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7257,13 +7291,13 @@
         <v>20</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>313</v>
+        <v>20</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>350</v>
+        <v>20</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>351</v>
+        <v>20</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>20</v>
@@ -7281,25 +7315,25 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>352</v>
+        <v>167</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>102</v>
+        <v>344</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>103</v>
+        <v>141</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>353</v>
+        <v>133</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>20</v>
@@ -7313,10 +7347,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7339,13 +7373,13 @@
         <v>20</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7396,7 +7430,7 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7414,7 +7448,7 @@
         <v>20</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>20</v>
@@ -7428,14 +7462,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7454,16 +7488,16 @@
         <v>20</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="N50" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7501,19 +7535,19 @@
         <v>20</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7522,16 +7556,16 @@
         <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>104</v>
+        <v>161</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>20</v>
@@ -7545,10 +7579,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7562,35 +7596,33 @@
         <v>90</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>360</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>20</v>
+        <v>354</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>20</v>
@@ -7632,25 +7664,25 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>362</v>
+        <v>133</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>20</v>
@@ -7664,10 +7696,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7675,32 +7707,30 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>366</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>20</v>
@@ -7749,7 +7779,7 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -7758,16 +7788,16 @@
         <v>90</v>
       </c>
       <c r="AI52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AJ52" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="AK52" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>368</v>
+        <v>133</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>20</v>
@@ -7781,10 +7811,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7795,7 +7825,7 @@
         <v>90</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>91</v>
@@ -7807,20 +7837,18 @@
         <v>91</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>113</v>
+        <v>362</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>372</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>20</v>
       </c>
@@ -7844,13 +7872,13 @@
         <v>20</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>20</v>
+        <v>308</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>20</v>
+        <v>366</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>20</v>
+        <v>367</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>20</v>
@@ -7868,25 +7896,25 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AJ53" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="AK53" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>374</v>
+        <v>20</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>20</v>
@@ -7900,10 +7928,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7923,23 +7951,19 @@
         <v>20</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>376</v>
+        <v>158</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>20</v>
       </c>
@@ -7987,7 +8011,7 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>379</v>
+        <v>160</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -7996,16 +8020,16 @@
         <v>90</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>380</v>
+        <v>161</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>20</v>
@@ -8019,21 +8043,21 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>20</v>
@@ -8042,23 +8066,21 @@
         <v>20</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>382</v>
+        <v>136</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>383</v>
+        <v>137</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>384</v>
+        <v>163</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>386</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>20</v>
       </c>
@@ -8094,37 +8116,37 @@
         <v>20</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>20</v>
+        <v>165</v>
       </c>
       <c r="AD55" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>387</v>
+        <v>167</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>103</v>
+        <v>141</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>388</v>
+        <v>161</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>20</v>
@@ -8138,10 +8160,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8164,18 +8186,20 @@
         <v>91</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>206</v>
+        <v>104</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="O56" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>375</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>20</v>
       </c>
@@ -8223,25 +8247,25 @@
         <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AI56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AJ56" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="AK56" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>111</v>
+        <v>377</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>20</v>
@@ -8255,10 +8279,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8266,13 +8290,13 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>20</v>
@@ -8281,16 +8305,16 @@
         <v>91</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>287</v>
+        <v>157</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8340,25 +8364,25 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AI57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AJ57" t="s" s="2">
-        <v>157</v>
-      </c>
       <c r="AK57" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>20</v>
@@ -8372,10 +8396,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8383,7 +8407,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>90</v>
@@ -8398,19 +8422,17 @@
         <v>91</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>287</v>
+        <v>110</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>402</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>20</v>
@@ -8459,7 +8481,7 @@
         <v>20</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -8468,16 +8490,16 @@
         <v>90</v>
       </c>
       <c r="AI58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AJ58" t="s" s="2">
-        <v>157</v>
-      </c>
       <c r="AK58" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>20</v>
@@ -8491,10 +8513,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8514,21 +8536,21 @@
         <v>20</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>113</v>
+        <v>157</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="O59" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>20</v>
       </c>
@@ -8552,13 +8574,13 @@
         <v>20</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>313</v>
+        <v>20</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>409</v>
+        <v>20</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>410</v>
+        <v>20</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>20</v>
@@ -8576,7 +8598,7 @@
         <v>20</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>411</v>
+        <v>394</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -8585,16 +8607,16 @@
         <v>90</v>
       </c>
       <c r="AI59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AJ59" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="AK59" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>111</v>
+        <v>395</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>20</v>
@@ -8608,10 +8630,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8631,21 +8653,23 @@
         <v>20</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>113</v>
+        <v>397</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="O60" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>20</v>
       </c>
@@ -8669,13 +8693,13 @@
         <v>20</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>313</v>
+        <v>20</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>409</v>
+        <v>20</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>410</v>
+        <v>20</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>20</v>
@@ -8693,7 +8717,7 @@
         <v>20</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -8702,16 +8726,16 @@
         <v>90</v>
       </c>
       <c r="AI60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AJ60" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="AK60" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>111</v>
+        <v>403</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>20</v>
@@ -8725,10 +8749,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8736,7 +8760,7 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>90</v>
@@ -8748,19 +8772,19 @@
         <v>20</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>417</v>
+        <v>204</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8810,38 +8834,623 @@
         <v>20</v>
       </c>
       <c r="AF61" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO61" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="O62" s="2"/>
+      <c r="P62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO62" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="P63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO63" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="AG61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI61" t="s" s="2">
+      <c r="N64" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="O64" s="2"/>
+      <c r="P64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AJ61" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO61" t="s" s="2">
+      <c r="AK64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO64" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="O66" s="2"/>
+      <c r="P66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO66" t="s" s="2">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO61">
+  <autoFilter ref="A1:AO66">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8851,7 +9460,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI60">
+  <conditionalFormatting sqref="A2:AI65">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-consent-management-provenance.xlsx
+++ b/output/StructureDefinition-consent-management-provenance.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-18T11:50:53+02:00</t>
+    <t>2025-06-18T14:35:27+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
